--- a/data/trans_dic/VUL_DEP-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,89</t>
+          <t>2,43; 6,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,33</t>
+          <t>7,17; 14,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,02</t>
+          <t>1,27; 4,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,6</t>
+          <t>4,21; 7,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 17,16</t>
+          <t>13,03; 19,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,51</t>
+          <t>5,27; 9,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,38</t>
+          <t>3,82; 6,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,99; 14,13</t>
+          <t>11,46; 15,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,25</t>
+          <t>3,73; 6,62</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,34</t>
+          <t>1,54; 2,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,15</t>
+          <t>2,05; 5,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,51</t>
+          <t>1,87; 3,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,22</t>
+          <t>3,25; 4,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,74</t>
+          <t>4,02; 8,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,39</t>
+          <t>3,21; 5,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,05</t>
+          <t>2,53; 3,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,16</t>
+          <t>3,63; 6,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,27</t>
+          <t>2,7; 3,94</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,33</t>
+          <t>0,45; 2,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,91</t>
+          <t>3,2; 7,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,68</t>
+          <t>0,46; 2,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,44</t>
+          <t>1,46; 3,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,76</t>
+          <t>2,56; 5,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,21</t>
+          <t>1,08; 3,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,36</t>
+          <t>1,14; 2,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,38</t>
+          <t>3,2; 5,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,34</t>
+          <t>0,96; 2,31</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,15%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,86%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,73</t>
+          <t>1,59; 2,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 5,84</t>
+          <t>3,15; 5,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,36</t>
+          <t>1,65; 2,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,28</t>
+          <t>3,29; 4,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,89</t>
+          <t>5,45; 8,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,17</t>
+          <t>3,4; 4,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,77</t>
+          <t>2,57; 3,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 7,16</t>
+          <t>4,79; 7,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,23</t>
+          <t>2,67; 3,63</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante la depresión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23122</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7393</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>62143</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19844</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11013</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>85266</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25127</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2134; 5866</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16362; 32863</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2747; 9434</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5379; 9603</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>51620; 75440</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14436; 26188</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8225; 14084</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>71589; 98929</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18263; 32385</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9198</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>52214</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21945</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17198</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>88500</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>35327</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26396</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>140714</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57272</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6952; 12520</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>28900; 72544</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16095; 29836</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14016; 20703</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>55637; 116461</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27964; 45666</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22354; 31090</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>101220; 176828</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46728; 68318</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23209</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16900</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7690</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5771</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40109</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11799</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>673; 3135</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14706; 35924</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1742; 9179</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2843; 6717</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11338; 25480</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4467; 13461</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3937; 8143</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28833; 53887</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7627; 18349</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14275</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>98545</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31337</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28905</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>167544</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>62861</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43180</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>266088</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>94199</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10985; 17499</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>66055; 123880</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24067; 40003</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24839; 33792</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>121171; 199437</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53052; 75454</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>37174; 48735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>207012; 306219</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>80389; 109556</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_DEP-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión</t>
+          <t>Vulnerabilidad ante la depresión (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión</t>
+          <t>Vulnerabilidad ante la depresión (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_DEP-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,68</t>
+          <t>1,83; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,39</t>
+          <t>6,86; 14,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,52</t>
+          <t>4,86; 8,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,03; 19,04</t>
+          <t>12,88; 18,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,54</t>
+          <t>3,98; 6,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 15,84</t>
+          <t>11,5; 15,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,77</t>
+          <t>1,48; 2,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,15</t>
+          <t>2,01; 5,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,8</t>
+          <t>2,99; 4,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,42</t>
+          <t>3,91; 8,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 3,52</t>
+          <t>2,41; 3,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,33</t>
+          <t>3,67; 6,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,08</t>
+          <t>0,32; 1,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,83</t>
+          <t>3,26; 7,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,45</t>
+          <t>1,41; 3,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,75</t>
+          <t>2,54; 5,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,36</t>
+          <t>1,11; 2,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,97</t>
+          <t>3,23; 6,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,53</t>
+          <t>1,45; 2,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,91</t>
+          <t>3,04; 5,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 4,48</t>
+          <t>3,18; 4,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,97</t>
+          <t>5,61; 8,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,37</t>
+          <t>2,48; 3,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,09</t>
+          <t>4,88; 7,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3620</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7393</t>
+          <t>7871</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11013</t>
+          <t>10522</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2134; 5866</t>
+          <t>1505; 3981</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16362; 32863</t>
+          <t>15664; 32661</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5379; 9603</t>
+          <t>5898; 10472</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51620; 75440</t>
+          <t>51021; 74970</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8225; 14084</t>
+          <t>8095; 13334</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>71589; 98929</t>
+          <t>71810; 98215</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9198</t>
+          <t>9140</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17198</t>
+          <t>16659</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26396</t>
+          <t>25799</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6952; 12520</t>
+          <t>6811; 12260</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28900; 72544</t>
+          <t>28334; 72038</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14016; 20703</t>
+          <t>13298; 20196</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>55637; 116461</t>
+          <t>54056; 116098</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22354; 31090</t>
+          <t>21862; 30275</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>101220; 176828</t>
+          <t>102541; 177953</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4951</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5771</t>
+          <t>6418</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>673; 3135</t>
+          <t>561; 2864</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14706; 35924</t>
+          <t>14981; 34047</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2843; 6717</t>
+          <t>3214; 7051</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11338; 25480</t>
+          <t>11270; 25436</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3937; 8143</t>
+          <t>4502; 9053</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28833; 53887</t>
+          <t>29148; 54893</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14275</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28905</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>43180</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10985; 17499</t>
+          <t>10398; 16593</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66055; 123880</t>
+          <t>63653; 123279</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24839; 33792</t>
+          <t>25302; 34822</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>121171; 199437</t>
+          <t>124702; 196507</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37174; 48735</t>
+          <t>37495; 48376</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>207012; 306219</t>
+          <t>210761; 310232</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_DEP-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,22%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,48%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>15,68%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,25%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>5,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,65%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6,52; 13,55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 4,37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,83; 4,84</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 14,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 4,37</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>13,5; 19,42</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 9,57</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>4,86; 8,63</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>12,88; 18,92</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 9,57</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>11,72; 16,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 6,62</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>3,98; 6,55</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>11,5; 15,73</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 6,62</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,98%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>3,74%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2,85%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,45; 6,07</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 3,46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,48; 2,66</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 5,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 3,46</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>6,32; 9,02</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 5,25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>2,99; 4,54</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,91; 8,39</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 5,25</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>5,27; 7,13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 3,94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2,41; 3,34</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 6,38</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 3,94</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,84%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>2,17%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,44%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,16; 7,33</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 2,42</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,32; 1,63</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 7,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 2,42</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,78; 6,12</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 3,25</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1,41; 3,09</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 5,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 3,25</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,35; 6,15</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 2,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,11; 2,24</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 6,08</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 2,31</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,85%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,71%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,82%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,32; 6,32</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 2,75</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,45; 2,31</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,04; 5,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,75</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>7,42; 9,52</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 4,84</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,18; 4,38</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,61; 8,84</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 4,84</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>6,26; 7,75</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 3,63</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2,48; 3,2</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 7,18</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 3,63</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>68</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>24364</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2651</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>23122</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5283</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>70399</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19844</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7871</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>62143</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>19844</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>94764</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25127</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>10522</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>85266</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>25127</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>16643; 34605</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2747; 9434</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1505; 3981</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15664; 32661</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2747; 9434</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>58569; 84254</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14436; 26188</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>5898; 10472</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>51021; 74970</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14436; 26188</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>80785; 110275</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18263; 32385</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>8095; 13334</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>71810; 98215</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>18263; 32385</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>151</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>59601</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21945</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>9140</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>52214</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>21945</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>95942</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35327</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>16659</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>88500</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>35327</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>155543</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57272</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>25799</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>140714</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>57272</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>44364; 78066</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16095; 29836</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>6811; 12260</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>28334; 72038</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>16095; 29836</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>80113; 114377</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27964; 45666</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>13298; 20196</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>54056; 116098</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>27964; 45666</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>134514; 182147</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46728; 68318</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>21862; 30275</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>102541; 177953</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>46728; 68318</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>25132</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1467</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>23209</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4109</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>20118</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7690</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4951</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>16900</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7690</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>45250</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11799</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>6418</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>40109</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>11799</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>16070; 37326</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1742; 9179</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>561; 2864</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>14981; 34047</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1742; 9179</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13806; 30365</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4467; 13461</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>3214; 7051</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11270; 25436</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4467; 13461</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>33627; 61809</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7627; 18349</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4502; 9053</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29148; 54893</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7627; 18349</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>175</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>253</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>194</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>109096</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31337</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>13259</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>98545</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>31337</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>186460</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>62861</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>29481</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>167544</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>62861</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>295557</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>94199</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>42740</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>266088</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>94199</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>88563; 129575</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24067; 40003</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>10398; 16593</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>63653; 123279</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>24067; 40003</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>163047; 209182</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53052; 75454</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>25302; 34822</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>124702; 196507</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>53052; 75454</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>266026; 329247</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80389; 109556</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>37495; 48376</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>210761; 310232</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>80389; 109556</t>
         </is>
       </c>
     </row>
